--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -1828,9 +1828,9 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3275,7 +3275,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -4049,8 +4049,8 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -4049,8 +4049,8 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -3275,9 +3275,9 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3569,9 +3569,9 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -3571,7 +3571,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -3275,7 +3275,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
@@ -3569,9 +3569,9 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4050,7 +4050,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8635CA-4D97-4B65-B5BD-43602D08DA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -21,13 +22,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 2'!$A$8:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 2'!$A$8:$F$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Iteration 3'!$A$8:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Iteration 4'!$A$8:$F$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -664,7 +665,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1002,7 +1003,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1708,7 +1709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1815,14 +1816,14 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10"/>
+  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2977,14 +2978,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44">
-    <sortState ref="A9:G44">
+  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2995,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3252,13 +3253,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3269,15 +3270,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3546,13 +3547,13 @@
       <c r="H16" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14"/>
+  <autoFilter ref="A8:F16" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3563,15 +3564,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3772,7 +3773,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>2</v>
@@ -3781,11 +3782,11 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>142</v>
+      <c r="F14" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H14" s="23"/>
     </row>
@@ -3810,7 +3811,7 @@
         <v>136</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H15" s="23"/>
     </row>
@@ -4025,13 +4026,13 @@
       <c r="H24" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4042,15 +4043,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4135,13 +4136,12 @@
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>136</v>
+      <c r="F9" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
@@ -4494,13 +4494,13 @@
       <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -3275,8 +3275,8 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4048,9 +4048,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -3569,9 +3569,9 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3960,7 +3960,7 @@
         <v>138</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H21" s="23"/>
     </row>
@@ -4048,7 +4048,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -3275,7 +3275,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
@@ -3569,7 +3569,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -3275,7 +3275,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
@@ -3569,9 +3569,9 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3985,7 +3985,7 @@
         <v>138</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H22" s="23"/>
     </row>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -3985,7 +3985,7 @@
         <v>138</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="H22" s="23"/>
     </row>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -3275,7 +3275,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
@@ -3569,7 +3569,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -3275,7 +3275,7 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
@@ -3569,7 +3569,7 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
@@ -3985,7 +3985,7 @@
         <v>138</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H22" s="23"/>
     </row>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -3571,7 +3571,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4010,7 +4010,7 @@
         <v>138</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H23" s="23"/>
     </row>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W7.xlsx
@@ -4010,7 +4010,7 @@
         <v>138</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="H23" s="23"/>
     </row>
